--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Reln-Vldlr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Reln-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0248615971806716</v>
+        <v>0.04097166666666666</v>
       </c>
       <c r="H2">
-        <v>0.0248615971806716</v>
+        <v>0.122915</v>
       </c>
       <c r="I2">
-        <v>0.006208566932187835</v>
+        <v>0.009706945257535527</v>
       </c>
       <c r="J2">
-        <v>0.006208566932187835</v>
+        <v>0.009706945257535527</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.141061593183936</v>
+        <v>0.1525076666666667</v>
       </c>
       <c r="N2">
-        <v>0.141061593183936</v>
+        <v>0.457523</v>
       </c>
       <c r="O2">
-        <v>0.04337949802958513</v>
+        <v>0.04260145387029883</v>
       </c>
       <c r="P2">
-        <v>0.04337949802958513</v>
+        <v>0.04260145387029883</v>
       </c>
       <c r="Q2">
-        <v>0.003507016507402787</v>
+        <v>0.006248493282777777</v>
       </c>
       <c r="R2">
-        <v>0.003507016507402787</v>
+        <v>0.056236439545</v>
       </c>
       <c r="S2">
-        <v>0.0002693245170013896</v>
+        <v>0.0004135299806104158</v>
       </c>
       <c r="T2">
-        <v>0.0002693245170013896</v>
+        <v>0.0004135299806104158</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0248615971806716</v>
+        <v>0.04097166666666666</v>
       </c>
       <c r="H3">
-        <v>0.0248615971806716</v>
+        <v>0.122915</v>
       </c>
       <c r="I3">
-        <v>0.006208566932187835</v>
+        <v>0.009706945257535527</v>
       </c>
       <c r="J3">
-        <v>0.006208566932187835</v>
+        <v>0.009706945257535527</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.82186594909713</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N3">
-        <v>1.82186594909713</v>
+        <v>5.943388</v>
       </c>
       <c r="O3">
-        <v>0.5602632762411425</v>
+        <v>0.5534081777643695</v>
       </c>
       <c r="P3">
-        <v>0.5602632762411425</v>
+        <v>0.5534081777643695</v>
       </c>
       <c r="Q3">
-        <v>0.0452944973436348</v>
+        <v>0.08117017066888887</v>
       </c>
       <c r="R3">
-        <v>0.0452944973436348</v>
+        <v>0.73053153602</v>
       </c>
       <c r="S3">
-        <v>0.003478432050189975</v>
+        <v>0.005371902886631225</v>
       </c>
       <c r="T3">
-        <v>0.003478432050189975</v>
+        <v>0.005371902886631225</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +652,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0248615971806716</v>
+        <v>0.04097166666666666</v>
       </c>
       <c r="H4">
-        <v>0.0248615971806716</v>
+        <v>0.122915</v>
       </c>
       <c r="I4">
-        <v>0.006208566932187835</v>
+        <v>0.009706945257535527</v>
       </c>
       <c r="J4">
-        <v>0.006208566932187835</v>
+        <v>0.009706945257535527</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.28887571942867</v>
+        <v>0.047446</v>
       </c>
       <c r="N4">
-        <v>1.28887571942867</v>
+        <v>0.142338</v>
       </c>
       <c r="O4">
-        <v>0.3963572257292723</v>
+        <v>0.01325355390000195</v>
       </c>
       <c r="P4">
-        <v>0.3963572257292723</v>
+        <v>0.01325355390000196</v>
       </c>
       <c r="Q4">
-        <v>0.0320435089523839</v>
+        <v>0.001943941696666666</v>
       </c>
       <c r="R4">
-        <v>0.0320435089523839</v>
+        <v>0.01749547527</v>
       </c>
       <c r="S4">
-        <v>0.00246081036499647</v>
+        <v>0.0001286515221751155</v>
       </c>
       <c r="T4">
-        <v>0.00246081036499647</v>
+        <v>0.0001286515221751155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.08893449930333069</v>
+        <v>0.04097166666666666</v>
       </c>
       <c r="H5">
-        <v>0.08893449930333069</v>
+        <v>0.122915</v>
       </c>
       <c r="I5">
-        <v>0.02220918420859175</v>
+        <v>0.009706945257535527</v>
       </c>
       <c r="J5">
-        <v>0.02220918420859175</v>
+        <v>0.009706945257535527</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.141061593183936</v>
+        <v>0.013399</v>
       </c>
       <c r="N5">
-        <v>0.141061593183936</v>
+        <v>0.040197</v>
       </c>
       <c r="O5">
-        <v>0.04337949802958513</v>
+        <v>0.003742873344562792</v>
       </c>
       <c r="P5">
-        <v>0.04337949802958513</v>
+        <v>0.003742873344562792</v>
       </c>
       <c r="Q5">
-        <v>0.01254524216074347</v>
+        <v>0.0005489793616666667</v>
       </c>
       <c r="R5">
-        <v>0.01254524216074347</v>
+        <v>0.004940814255</v>
       </c>
       <c r="S5">
-        <v>0.0009634232626152992</v>
+        <v>3.633186666155994E-05</v>
       </c>
       <c r="T5">
-        <v>0.0009634232626152992</v>
+        <v>3.633186666155994E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.08893449930333069</v>
+        <v>0.04097166666666666</v>
       </c>
       <c r="H6">
-        <v>0.08893449930333069</v>
+        <v>0.122915</v>
       </c>
       <c r="I6">
-        <v>0.02220918420859175</v>
+        <v>0.009706945257535527</v>
       </c>
       <c r="J6">
-        <v>0.02220918420859175</v>
+        <v>0.009706945257535527</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.82186594909713</v>
+        <v>1.385388</v>
       </c>
       <c r="N6">
-        <v>1.82186594909713</v>
+        <v>4.156164</v>
       </c>
       <c r="O6">
-        <v>0.5602632762411425</v>
+        <v>0.386993941120767</v>
       </c>
       <c r="P6">
-        <v>0.5602632762411425</v>
+        <v>0.386993941120767</v>
       </c>
       <c r="Q6">
-        <v>0.1620267359807406</v>
+        <v>0.05676165533999999</v>
       </c>
       <c r="R6">
-        <v>0.1620267359807406</v>
+        <v>0.5108548980600001</v>
       </c>
       <c r="S6">
-        <v>0.01244299030734866</v>
+        <v>0.003756529001457213</v>
       </c>
       <c r="T6">
-        <v>0.01244299030734866</v>
+        <v>0.003756529001457213</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,247 +838,1549 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.08893449930333069</v>
+        <v>0.09700633333333335</v>
       </c>
       <c r="H7">
-        <v>0.08893449930333069</v>
+        <v>0.291019</v>
       </c>
       <c r="I7">
-        <v>0.02220918420859175</v>
+        <v>0.02298259367776701</v>
       </c>
       <c r="J7">
-        <v>0.02220918420859175</v>
+        <v>0.02298259367776701</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.28887571942867</v>
+        <v>0.1525076666666667</v>
       </c>
       <c r="N7">
-        <v>1.28887571942867</v>
+        <v>0.457523</v>
       </c>
       <c r="O7">
-        <v>0.3963572257292723</v>
+        <v>0.04260145387029883</v>
       </c>
       <c r="P7">
-        <v>0.3963572257292723</v>
+        <v>0.04260145387029883</v>
       </c>
       <c r="Q7">
-        <v>0.1146255167716089</v>
+        <v>0.01479420954855556</v>
       </c>
       <c r="R7">
-        <v>0.1146255167716089</v>
+        <v>0.133147885937</v>
       </c>
       <c r="S7">
-        <v>0.008802770638627793</v>
+        <v>0.0009790919043832129</v>
       </c>
       <c r="T7">
-        <v>0.008802770638627793</v>
+        <v>0.0009790919043832129</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.89060579725714</v>
+        <v>0.09700633333333335</v>
       </c>
       <c r="H8">
-        <v>3.89060579725714</v>
+        <v>0.291019</v>
       </c>
       <c r="I8">
-        <v>0.9715822488592205</v>
+        <v>0.02298259367776701</v>
       </c>
       <c r="J8">
-        <v>0.9715822488592205</v>
+        <v>0.02298259367776701</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.141061593183936</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N8">
-        <v>0.141061593183936</v>
+        <v>5.943388</v>
       </c>
       <c r="O8">
-        <v>0.04337949802958513</v>
+        <v>0.5534081777643695</v>
       </c>
       <c r="P8">
-        <v>0.04337949802958513</v>
+        <v>0.5534081777643695</v>
       </c>
       <c r="Q8">
-        <v>0.5488150522117496</v>
+        <v>0.1921820924857778</v>
       </c>
       <c r="R8">
-        <v>0.5488150522117496</v>
+        <v>1.729638832372</v>
       </c>
       <c r="S8">
-        <v>0.04214675024996845</v>
+        <v>0.01271875528751196</v>
       </c>
       <c r="T8">
-        <v>0.04214675024996845</v>
+        <v>0.01271875528751196</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.89060579725714</v>
+        <v>0.09700633333333335</v>
       </c>
       <c r="H9">
-        <v>3.89060579725714</v>
+        <v>0.291019</v>
       </c>
       <c r="I9">
-        <v>0.9715822488592205</v>
+        <v>0.02298259367776701</v>
       </c>
       <c r="J9">
-        <v>0.9715822488592205</v>
+        <v>0.02298259367776701</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.82186594909713</v>
+        <v>0.047446</v>
       </c>
       <c r="N9">
-        <v>1.82186594909713</v>
+        <v>0.142338</v>
       </c>
       <c r="O9">
-        <v>0.5602632762411425</v>
+        <v>0.01325355390000195</v>
       </c>
       <c r="P9">
-        <v>0.5602632762411425</v>
+        <v>0.01325355390000196</v>
       </c>
       <c r="Q9">
-        <v>7.088162223382676</v>
+        <v>0.004602562491333334</v>
       </c>
       <c r="R9">
-        <v>7.088162223382676</v>
+        <v>0.041423062422</v>
       </c>
       <c r="S9">
-        <v>0.5443418538836039</v>
+        <v>0.0003046010440701293</v>
       </c>
       <c r="T9">
-        <v>0.5443418538836039</v>
+        <v>0.0003046010440701293</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.09700633333333335</v>
+      </c>
+      <c r="H10">
+        <v>0.291019</v>
+      </c>
+      <c r="I10">
+        <v>0.02298259367776701</v>
+      </c>
+      <c r="J10">
+        <v>0.02298259367776701</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.013399</v>
+      </c>
+      <c r="N10">
+        <v>0.040197</v>
+      </c>
+      <c r="O10">
+        <v>0.003742873344562792</v>
+      </c>
+      <c r="P10">
+        <v>0.003742873344562792</v>
+      </c>
+      <c r="Q10">
+        <v>0.001299787860333334</v>
+      </c>
+      <c r="R10">
+        <v>0.011698090743</v>
+      </c>
+      <c r="S10">
+        <v>8.602093726543149E-05</v>
+      </c>
+      <c r="T10">
+        <v>8.602093726543149E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.09700633333333335</v>
+      </c>
+      <c r="H11">
+        <v>0.291019</v>
+      </c>
+      <c r="I11">
+        <v>0.02298259367776701</v>
+      </c>
+      <c r="J11">
+        <v>0.02298259367776701</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.385388</v>
+      </c>
+      <c r="N11">
+        <v>4.156164</v>
+      </c>
+      <c r="O11">
+        <v>0.386993941120767</v>
+      </c>
+      <c r="P11">
+        <v>0.386993941120767</v>
+      </c>
+      <c r="Q11">
+        <v>0.134391410124</v>
+      </c>
+      <c r="R11">
+        <v>1.209522691116</v>
+      </c>
+      <c r="S11">
+        <v>0.008894124504536279</v>
+      </c>
+      <c r="T11">
+        <v>0.008894124504536279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>7.366666666666666E-05</v>
+      </c>
+      <c r="H12">
+        <v>0.000221</v>
+      </c>
+      <c r="I12">
+        <v>1.745299517483913E-05</v>
+      </c>
+      <c r="J12">
+        <v>1.745299517483913E-05</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1525076666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.457523</v>
+      </c>
+      <c r="O12">
+        <v>0.04260145387029883</v>
+      </c>
+      <c r="P12">
+        <v>0.04260145387029883</v>
+      </c>
+      <c r="Q12">
+        <v>1.123473144444444E-05</v>
+      </c>
+      <c r="R12">
+        <v>0.000101112583</v>
+      </c>
+      <c r="S12">
+        <v>7.435229688394572E-07</v>
+      </c>
+      <c r="T12">
+        <v>7.435229688394572E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>7.366666666666666E-05</v>
+      </c>
+      <c r="H13">
+        <v>0.000221</v>
+      </c>
+      <c r="I13">
+        <v>1.745299517483913E-05</v>
+      </c>
+      <c r="J13">
+        <v>1.745299517483913E-05</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.981129333333333</v>
+      </c>
+      <c r="N13">
+        <v>5.943388</v>
+      </c>
+      <c r="O13">
+        <v>0.5534081777643695</v>
+      </c>
+      <c r="P13">
+        <v>0.5534081777643695</v>
+      </c>
+      <c r="Q13">
+        <v>0.0001459431942222222</v>
+      </c>
+      <c r="R13">
+        <v>0.001313488748</v>
+      </c>
+      <c r="S13">
+        <v>9.658630256238056E-06</v>
+      </c>
+      <c r="T13">
+        <v>9.658630256238056E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>7.366666666666666E-05</v>
+      </c>
+      <c r="H14">
+        <v>0.000221</v>
+      </c>
+      <c r="I14">
+        <v>1.745299517483913E-05</v>
+      </c>
+      <c r="J14">
+        <v>1.745299517483913E-05</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.047446</v>
+      </c>
+      <c r="N14">
+        <v>0.142338</v>
+      </c>
+      <c r="O14">
+        <v>0.01325355390000195</v>
+      </c>
+      <c r="P14">
+        <v>0.01325355390000196</v>
+      </c>
+      <c r="Q14">
+        <v>3.495188666666666E-06</v>
+      </c>
+      <c r="R14">
+        <v>3.1456698E-05</v>
+      </c>
+      <c r="S14">
+        <v>2.313142122662045E-07</v>
+      </c>
+      <c r="T14">
+        <v>2.313142122662045E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>7.366666666666666E-05</v>
+      </c>
+      <c r="H15">
+        <v>0.000221</v>
+      </c>
+      <c r="I15">
+        <v>1.745299517483913E-05</v>
+      </c>
+      <c r="J15">
+        <v>1.745299517483913E-05</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.013399</v>
+      </c>
+      <c r="N15">
+        <v>0.040197</v>
+      </c>
+      <c r="O15">
+        <v>0.003742873344562792</v>
+      </c>
+      <c r="P15">
+        <v>0.003742873344562792</v>
+      </c>
+      <c r="Q15">
+        <v>9.870596666666667E-07</v>
+      </c>
+      <c r="R15">
+        <v>8.883537000000002E-06</v>
+      </c>
+      <c r="S15">
+        <v>6.532435042268842E-08</v>
+      </c>
+      <c r="T15">
+        <v>6.532435042268842E-08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>7.366666666666666E-05</v>
+      </c>
+      <c r="H16">
+        <v>0.000221</v>
+      </c>
+      <c r="I16">
+        <v>1.745299517483913E-05</v>
+      </c>
+      <c r="J16">
+        <v>1.745299517483913E-05</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.385388</v>
+      </c>
+      <c r="N16">
+        <v>4.156164</v>
+      </c>
+      <c r="O16">
+        <v>0.386993941120767</v>
+      </c>
+      <c r="P16">
+        <v>0.386993941120767</v>
+      </c>
+      <c r="Q16">
+        <v>0.000102056916</v>
+      </c>
+      <c r="R16">
+        <v>0.0009185122440000001</v>
+      </c>
+      <c r="S16">
+        <v>6.754203387072726E-06</v>
+      </c>
+      <c r="T16">
+        <v>6.754203387072726E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.011261</v>
+      </c>
+      <c r="H17">
+        <v>0.033783</v>
+      </c>
+      <c r="I17">
+        <v>0.002667939076885024</v>
+      </c>
+      <c r="J17">
+        <v>0.002667939076885024</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1525076666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.457523</v>
+      </c>
+      <c r="O17">
+        <v>0.04260145387029883</v>
+      </c>
+      <c r="P17">
+        <v>0.04260145387029883</v>
+      </c>
+      <c r="Q17">
+        <v>0.001717388834333333</v>
+      </c>
+      <c r="R17">
+        <v>0.015456499509</v>
+      </c>
+      <c r="S17">
+        <v>0.000113658083512685</v>
+      </c>
+      <c r="T17">
+        <v>0.000113658083512685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.011261</v>
+      </c>
+      <c r="H18">
+        <v>0.033783</v>
+      </c>
+      <c r="I18">
+        <v>0.002667939076885024</v>
+      </c>
+      <c r="J18">
+        <v>0.002667939076885024</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.981129333333333</v>
+      </c>
+      <c r="N18">
+        <v>5.943388</v>
+      </c>
+      <c r="O18">
+        <v>0.5534081777643695</v>
+      </c>
+      <c r="P18">
+        <v>0.5534081777643695</v>
+      </c>
+      <c r="Q18">
+        <v>0.02230949742266667</v>
+      </c>
+      <c r="R18">
+        <v>0.200785476804</v>
+      </c>
+      <c r="S18">
+        <v>0.001476459302925295</v>
+      </c>
+      <c r="T18">
+        <v>0.001476459302925295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.011261</v>
+      </c>
+      <c r="H19">
+        <v>0.033783</v>
+      </c>
+      <c r="I19">
+        <v>0.002667939076885024</v>
+      </c>
+      <c r="J19">
+        <v>0.002667939076885024</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.047446</v>
+      </c>
+      <c r="N19">
+        <v>0.142338</v>
+      </c>
+      <c r="O19">
+        <v>0.01325355390000195</v>
+      </c>
+      <c r="P19">
+        <v>0.01325355390000196</v>
+      </c>
+      <c r="Q19">
+        <v>0.000534289406</v>
+      </c>
+      <c r="R19">
+        <v>0.004808604654</v>
+      </c>
+      <c r="S19">
+        <v>3.535967435741713E-05</v>
+      </c>
+      <c r="T19">
+        <v>3.535967435741713E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.011261</v>
+      </c>
+      <c r="H20">
+        <v>0.033783</v>
+      </c>
+      <c r="I20">
+        <v>0.002667939076885024</v>
+      </c>
+      <c r="J20">
+        <v>0.002667939076885024</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.013399</v>
+      </c>
+      <c r="N20">
+        <v>0.040197</v>
+      </c>
+      <c r="O20">
+        <v>0.003742873344562792</v>
+      </c>
+      <c r="P20">
+        <v>0.003742873344562792</v>
+      </c>
+      <c r="Q20">
+        <v>0.000150886139</v>
+      </c>
+      <c r="R20">
+        <v>0.001357975251</v>
+      </c>
+      <c r="S20">
+        <v>9.985758055790418E-06</v>
+      </c>
+      <c r="T20">
+        <v>9.985758055790418E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.011261</v>
+      </c>
+      <c r="H21">
+        <v>0.033783</v>
+      </c>
+      <c r="I21">
+        <v>0.002667939076885024</v>
+      </c>
+      <c r="J21">
+        <v>0.002667939076885024</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.385388</v>
+      </c>
+      <c r="N21">
+        <v>4.156164</v>
+      </c>
+      <c r="O21">
+        <v>0.386993941120767</v>
+      </c>
+      <c r="P21">
+        <v>0.386993941120767</v>
+      </c>
+      <c r="Q21">
+        <v>0.015600854268</v>
+      </c>
+      <c r="R21">
+        <v>0.140407688412</v>
+      </c>
+      <c r="S21">
+        <v>0.001032476258033837</v>
+      </c>
+      <c r="T21">
+        <v>0.001032476258033837</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.02013433333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.060403</v>
+      </c>
+      <c r="I22">
+        <v>0.004770195780750263</v>
+      </c>
+      <c r="J22">
+        <v>0.004770195780750263</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.1525076666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.457523</v>
+      </c>
+      <c r="O22">
+        <v>0.04260145387029883</v>
+      </c>
+      <c r="P22">
+        <v>0.04260145387029883</v>
+      </c>
+      <c r="Q22">
+        <v>0.003070640196555555</v>
+      </c>
+      <c r="R22">
+        <v>0.027635761769</v>
+      </c>
+      <c r="S22">
+        <v>0.0002032172755059264</v>
+      </c>
+      <c r="T22">
+        <v>0.0002032172755059264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.02013433333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.060403</v>
+      </c>
+      <c r="I23">
+        <v>0.004770195780750263</v>
+      </c>
+      <c r="J23">
+        <v>0.004770195780750263</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.981129333333333</v>
+      </c>
+      <c r="N23">
+        <v>5.943388</v>
+      </c>
+      <c r="O23">
+        <v>0.5534081777643695</v>
+      </c>
+      <c r="P23">
+        <v>0.5534081777643695</v>
+      </c>
+      <c r="Q23">
+        <v>0.03988871837377778</v>
+      </c>
+      <c r="R23">
+        <v>0.358998465364</v>
+      </c>
+      <c r="S23">
+        <v>0.002639865354604286</v>
+      </c>
+      <c r="T23">
+        <v>0.002639865354604286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3.89060579725714</v>
-      </c>
-      <c r="H10">
-        <v>3.89060579725714</v>
-      </c>
-      <c r="I10">
-        <v>0.9715822488592205</v>
-      </c>
-      <c r="J10">
-        <v>0.9715822488592205</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.28887571942867</v>
-      </c>
-      <c r="N10">
-        <v>1.28887571942867</v>
-      </c>
-      <c r="O10">
-        <v>0.3963572257292723</v>
-      </c>
-      <c r="P10">
-        <v>0.3963572257292723</v>
-      </c>
-      <c r="Q10">
-        <v>5.014507345953151</v>
-      </c>
-      <c r="R10">
-        <v>5.014507345953151</v>
-      </c>
-      <c r="S10">
-        <v>0.3850936447256481</v>
-      </c>
-      <c r="T10">
-        <v>0.3850936447256481</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.02013433333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.060403</v>
+      </c>
+      <c r="I24">
+        <v>0.004770195780750263</v>
+      </c>
+      <c r="J24">
+        <v>0.004770195780750263</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.047446</v>
+      </c>
+      <c r="N24">
+        <v>0.142338</v>
+      </c>
+      <c r="O24">
+        <v>0.01325355390000195</v>
+      </c>
+      <c r="P24">
+        <v>0.01325355390000196</v>
+      </c>
+      <c r="Q24">
+        <v>0.0009552935793333332</v>
+      </c>
+      <c r="R24">
+        <v>0.008597642213999999</v>
+      </c>
+      <c r="S24">
+        <v>6.322204689373552E-05</v>
+      </c>
+      <c r="T24">
+        <v>6.322204689373552E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.02013433333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.060403</v>
+      </c>
+      <c r="I25">
+        <v>0.004770195780750263</v>
+      </c>
+      <c r="J25">
+        <v>0.004770195780750263</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.013399</v>
+      </c>
+      <c r="N25">
+        <v>0.040197</v>
+      </c>
+      <c r="O25">
+        <v>0.003742873344562792</v>
+      </c>
+      <c r="P25">
+        <v>0.003742873344562792</v>
+      </c>
+      <c r="Q25">
+        <v>0.0002697799323333334</v>
+      </c>
+      <c r="R25">
+        <v>0.002428019391</v>
+      </c>
+      <c r="S25">
+        <v>1.785423863611605E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.785423863611605E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.02013433333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.060403</v>
+      </c>
+      <c r="I26">
+        <v>0.004770195780750263</v>
+      </c>
+      <c r="J26">
+        <v>0.004770195780750263</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.385388</v>
+      </c>
+      <c r="N26">
+        <v>4.156164</v>
+      </c>
+      <c r="O26">
+        <v>0.386993941120767</v>
+      </c>
+      <c r="P26">
+        <v>0.386993941120767</v>
+      </c>
+      <c r="Q26">
+        <v>0.027893863788</v>
+      </c>
+      <c r="R26">
+        <v>0.251044774092</v>
+      </c>
+      <c r="S26">
+        <v>0.001846036865110198</v>
+      </c>
+      <c r="T26">
+        <v>0.001846036865110198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4.051414</v>
+      </c>
+      <c r="H27">
+        <v>12.154242</v>
+      </c>
+      <c r="I27">
+        <v>0.9598548732118873</v>
+      </c>
+      <c r="J27">
+        <v>0.9598548732118873</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.1525076666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.457523</v>
+      </c>
+      <c r="O27">
+        <v>0.04260145387029883</v>
+      </c>
+      <c r="P27">
+        <v>0.04260145387029883</v>
+      </c>
+      <c r="Q27">
+        <v>0.6178716958406667</v>
+      </c>
+      <c r="R27">
+        <v>5.560845262566</v>
+      </c>
+      <c r="S27">
+        <v>0.04089121310331775</v>
+      </c>
+      <c r="T27">
+        <v>0.04089121310331775</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4.051414</v>
+      </c>
+      <c r="H28">
+        <v>12.154242</v>
+      </c>
+      <c r="I28">
+        <v>0.9598548732118873</v>
+      </c>
+      <c r="J28">
+        <v>0.9598548732118873</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.981129333333333</v>
+      </c>
+      <c r="N28">
+        <v>5.943388</v>
+      </c>
+      <c r="O28">
+        <v>0.5534081777643695</v>
+      </c>
+      <c r="P28">
+        <v>0.5534081777643695</v>
+      </c>
+      <c r="Q28">
+        <v>8.026375116877334</v>
+      </c>
+      <c r="R28">
+        <v>72.23737605189599</v>
+      </c>
+      <c r="S28">
+        <v>0.5311915363024404</v>
+      </c>
+      <c r="T28">
+        <v>0.5311915363024404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4.051414</v>
+      </c>
+      <c r="H29">
+        <v>12.154242</v>
+      </c>
+      <c r="I29">
+        <v>0.9598548732118873</v>
+      </c>
+      <c r="J29">
+        <v>0.9598548732118873</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.047446</v>
+      </c>
+      <c r="N29">
+        <v>0.142338</v>
+      </c>
+      <c r="O29">
+        <v>0.01325355390000195</v>
+      </c>
+      <c r="P29">
+        <v>0.01325355390000196</v>
+      </c>
+      <c r="Q29">
+        <v>0.192223388644</v>
+      </c>
+      <c r="R29">
+        <v>1.730010497796</v>
+      </c>
+      <c r="S29">
+        <v>0.01272148829829329</v>
+      </c>
+      <c r="T29">
+        <v>0.01272148829829329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4.051414</v>
+      </c>
+      <c r="H30">
+        <v>12.154242</v>
+      </c>
+      <c r="I30">
+        <v>0.9598548732118873</v>
+      </c>
+      <c r="J30">
+        <v>0.9598548732118873</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.013399</v>
+      </c>
+      <c r="N30">
+        <v>0.040197</v>
+      </c>
+      <c r="O30">
+        <v>0.003742873344562792</v>
+      </c>
+      <c r="P30">
+        <v>0.003742873344562792</v>
+      </c>
+      <c r="Q30">
+        <v>0.05428489618600001</v>
+      </c>
+      <c r="R30">
+        <v>0.4885640656740001</v>
+      </c>
+      <c r="S30">
+        <v>0.003592615219593472</v>
+      </c>
+      <c r="T30">
+        <v>0.003592615219593472</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.051414</v>
+      </c>
+      <c r="H31">
+        <v>12.154242</v>
+      </c>
+      <c r="I31">
+        <v>0.9598548732118873</v>
+      </c>
+      <c r="J31">
+        <v>0.9598548732118873</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.385388</v>
+      </c>
+      <c r="N31">
+        <v>4.156164</v>
+      </c>
+      <c r="O31">
+        <v>0.386993941120767</v>
+      </c>
+      <c r="P31">
+        <v>0.386993941120767</v>
+      </c>
+      <c r="Q31">
+        <v>5.612780338632001</v>
+      </c>
+      <c r="R31">
+        <v>50.515023047688</v>
+      </c>
+      <c r="S31">
+        <v>0.3714580202882424</v>
+      </c>
+      <c r="T31">
+        <v>0.3714580202882424</v>
       </c>
     </row>
   </sheetData>
